--- a/Base/src/main/resources/templates/projectDetailsBySkills.xlsx
+++ b/Base/src/main/resources/templates/projectDetailsBySkills.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Workspace-famstack-pmt\bops\Base\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FS-Workspace\bops\Base\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8359580-EDD3-43C6-A4D3-3D3A9370D640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="4950" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="4950" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="66">
   <si>
     <t>Client Name</t>
   </si>
@@ -223,21 +224,21 @@
     <t xml:space="preserve">Actual Revenue </t>
   </si>
   <si>
-    <t>BU</t>
-  </si>
-  <si>
     <t>Resource wise hours according to skills</t>
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Project Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -278,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,12 +324,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,7 +340,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,56 +357,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,21 +698,21 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.15625" customWidth="1"/>
+    <col min="3" max="3" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -725,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -736,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -747,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3</v>
       </c>
@@ -758,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -769,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
@@ -780,12 +775,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1</v>
       </c>
@@ -796,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2</v>
       </c>
@@ -807,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>3</v>
       </c>
@@ -818,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>4</v>
       </c>
@@ -829,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>5</v>
       </c>
@@ -840,12 +835,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1</v>
       </c>
@@ -856,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2</v>
       </c>
@@ -867,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>3</v>
       </c>
@@ -878,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>4</v>
       </c>
@@ -889,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>5</v>
       </c>
@@ -900,17 +895,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1</v>
       </c>
@@ -918,22 +913,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>17</v>
       </c>
@@ -951,706 +946,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DC11" sqref="DC11"/>
+      <selection pane="bottomRight" activeCell="CY7" sqref="CY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.41796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.41796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.83984375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.68359375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.41796875" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.26171875" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="25.578125" style="4" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="26.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="31.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="26.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="22.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="31.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="17.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="18.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="20.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="20.41796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="21.68359375" style="4" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="22.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="18.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="18.578125" style="3" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="20.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.578125" style="3" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.26171875" style="3" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="36.83984375" style="3" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.140625" style="3" customWidth="1"/>
-    <col min="120" max="120" width="25.140625" style="3" customWidth="1"/>
-    <col min="121" max="121" width="30.42578125" style="3" customWidth="1"/>
-    <col min="122" max="122" width="26.42578125" style="3" customWidth="1"/>
-    <col min="123" max="123" width="28.28515625" style="3" customWidth="1"/>
-    <col min="124" max="124" width="23.28515625" style="3" customWidth="1"/>
-    <col min="125" max="16384" width="9.140625" style="3"/>
+    <col min="118" max="118" width="29.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.15625" style="3" customWidth="1"/>
+    <col min="120" max="120" width="25.15625" style="3" customWidth="1"/>
+    <col min="121" max="121" width="30.41796875" style="3" customWidth="1"/>
+    <col min="122" max="122" width="26.41796875" style="3" customWidth="1"/>
+    <col min="123" max="123" width="28.26171875" style="3" customWidth="1"/>
+    <col min="124" max="124" width="23.26171875" style="3" customWidth="1"/>
+    <col min="125" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" x14ac:dyDescent="0.25">
-      <c r="N1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21" t="s">
+    <row r="1" spans="1:210" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BG1" s="21" t="s">
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BG1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21" t="s">
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="22" t="s">
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19"/>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="CJ1" s="22"/>
-      <c r="CK1" s="22"/>
-      <c r="CL1" s="22"/>
-      <c r="CM1" s="22"/>
-      <c r="CN1" s="22"/>
-      <c r="CO1" s="22"/>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
-      <c r="CS1" s="22"/>
-      <c r="CT1" s="22"/>
-      <c r="CU1" s="22"/>
-      <c r="CV1" s="22"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
       <c r="CX1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DC1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="DD1" s="21"/>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21"/>
-      <c r="DG1" s="21"/>
-    </row>
-    <row r="2" spans="1:210" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="DC1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="DD1" s="19"/>
+      <c r="DE1" s="19"/>
+      <c r="DF1" s="19"/>
+      <c r="DG1" s="19"/>
+    </row>
+    <row r="2" spans="1:210" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AT2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AV2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AW2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AX2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AY2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BB2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BD2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BF2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BI2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="BJ2" s="14" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BK2" s="14" t="s">
+      <c r="BK2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="14" t="s">
+      <c r="BL2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="14" t="s">
+      <c r="BM2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="BN2" s="14" t="s">
+      <c r="BN2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BO2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BP2" s="14" t="s">
+      <c r="BP2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BQ2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BR2" s="14" t="s">
+      <c r="BR2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" s="12" t="s">
+      <c r="BS2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BT2" s="12" t="s">
+      <c r="BT2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BU2" s="11" t="s">
+      <c r="BU2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BV2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BW2" s="11" t="s">
+      <c r="BW2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BX2" s="11" t="s">
+      <c r="BX2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="BY2" s="11" t="s">
+      <c r="BY2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA2" s="11" t="s">
+      <c r="CA2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="CB2" s="11" t="s">
+      <c r="CB2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="CC2" s="11" t="s">
+      <c r="CC2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CD2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CE2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CF2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="CG2" s="11" t="s">
+      <c r="CG2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="CH2" s="11" t="s">
+      <c r="CH2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="CI2" s="12" t="s">
+      <c r="CI2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="CJ2" s="12" t="s">
+      <c r="CJ2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CK2" s="12" t="s">
+      <c r="CK2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CL2" s="12" t="s">
+      <c r="CL2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="CM2" s="12" t="s">
+      <c r="CM2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="CN2" s="12" t="s">
+      <c r="CN2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="CO2" s="12" t="s">
+      <c r="CO2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="CP2" s="12" t="s">
+      <c r="CP2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="CQ2" s="12" t="s">
+      <c r="CQ2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="CR2" s="12" t="s">
+      <c r="CR2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="CS2" s="12" t="s">
+      <c r="CS2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="CT2" s="14" t="s">
+      <c r="CT2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="CU2" s="12" t="s">
+      <c r="CU2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="CV2" s="12" t="s">
+      <c r="CV2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="CW2" s="11" t="s">
+      <c r="CW2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CX2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CY2" s="18" t="s">
+      <c r="CY2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="CZ2" s="18" t="s">
+      <c r="CZ2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="DA2" s="18" t="s">
+      <c r="DA2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DB2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DC2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DD2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="DE2" s="19" t="s">
+      <c r="DE2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="DF2" s="19" t="s">
+      <c r="DF2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="DG2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="DH2" s="19" t="s">
+      <c r="DH2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="DI2" s="19" t="s">
+      <c r="DI2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="DJ2" s="19" t="s">
+      <c r="DJ2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="DK2" s="19" t="s">
+      <c r="DK2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="DL2" s="19" t="s">
+      <c r="DL2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="DM2" s="19" t="s">
+      <c r="DM2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="DN2" s="19" t="s">
+      <c r="DN2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="DO2" s="19"/>
-      <c r="DP2" s="20"/>
-      <c r="DQ2" s="20"/>
-      <c r="DR2" s="20"/>
-      <c r="DS2" s="20"/>
-      <c r="DT2" s="20"/>
-      <c r="DU2" s="20"/>
-      <c r="DV2" s="20"/>
-      <c r="DW2" s="20"/>
-      <c r="DX2" s="20"/>
-      <c r="DY2" s="20"/>
-      <c r="DZ2" s="20"/>
-      <c r="EA2" s="20"/>
-      <c r="EB2" s="20"/>
-      <c r="EC2" s="20"/>
-      <c r="ED2" s="20"/>
-      <c r="EE2" s="20"/>
-      <c r="EF2" s="20"/>
-      <c r="EG2" s="20"/>
-      <c r="EH2" s="20"/>
-      <c r="EI2" s="20"/>
-      <c r="EJ2" s="20"/>
-      <c r="EK2" s="20"/>
-      <c r="EL2" s="20"/>
-      <c r="EM2" s="20"/>
-      <c r="EN2" s="20"/>
-      <c r="EO2" s="20"/>
-      <c r="EP2" s="20"/>
-      <c r="EQ2" s="20"/>
-      <c r="ER2" s="20"/>
-      <c r="ES2" s="20"/>
-      <c r="ET2" s="20"/>
-      <c r="EU2" s="20"/>
-      <c r="EV2" s="20"/>
-      <c r="EW2" s="20"/>
-      <c r="EX2" s="20"/>
-      <c r="EY2" s="20"/>
-      <c r="EZ2" s="20"/>
-      <c r="FA2" s="20"/>
-      <c r="FB2" s="20"/>
-      <c r="FC2" s="20"/>
-      <c r="FD2" s="20"/>
-      <c r="FE2" s="20"/>
-      <c r="FF2" s="20"/>
-      <c r="FG2" s="20"/>
-      <c r="FH2" s="20"/>
-      <c r="FI2" s="20"/>
-      <c r="FJ2" s="20"/>
-      <c r="FK2" s="20"/>
-      <c r="FL2" s="20"/>
-      <c r="FM2" s="20"/>
-      <c r="FN2" s="20"/>
-      <c r="FO2" s="20"/>
-      <c r="FP2" s="20"/>
-      <c r="FQ2" s="20"/>
-      <c r="FR2" s="20"/>
-      <c r="FS2" s="20"/>
-      <c r="FT2" s="20"/>
-      <c r="FU2" s="20"/>
-      <c r="FV2" s="20"/>
-      <c r="FW2" s="20"/>
-      <c r="FX2" s="20"/>
-      <c r="FY2" s="20"/>
-      <c r="FZ2" s="20"/>
-      <c r="GA2" s="20"/>
-      <c r="GB2" s="20"/>
-      <c r="GC2" s="20"/>
-      <c r="GD2" s="20"/>
-      <c r="GE2" s="20"/>
-      <c r="GF2" s="20"/>
-      <c r="GG2" s="20"/>
-      <c r="GH2" s="20"/>
-      <c r="GI2" s="20"/>
-      <c r="GJ2" s="20"/>
-      <c r="GK2" s="20"/>
-      <c r="GL2" s="20"/>
-      <c r="GM2" s="20"/>
-      <c r="GN2" s="20"/>
-      <c r="GO2" s="20"/>
-      <c r="GP2" s="20"/>
-      <c r="GQ2" s="20"/>
-      <c r="GR2" s="20"/>
-      <c r="GS2" s="20"/>
-      <c r="GT2" s="20"/>
-      <c r="GU2" s="20"/>
-      <c r="GV2" s="20"/>
-      <c r="GW2" s="20"/>
-      <c r="GX2" s="20"/>
-      <c r="GY2" s="20"/>
-      <c r="GZ2" s="20"/>
-      <c r="HA2" s="20"/>
-      <c r="HB2" s="20"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="18"/>
+      <c r="DQ2" s="18"/>
+      <c r="DR2" s="18"/>
+      <c r="DS2" s="18"/>
+      <c r="DT2" s="18"/>
+      <c r="DU2" s="18"/>
+      <c r="DV2" s="18"/>
+      <c r="DW2" s="18"/>
+      <c r="DX2" s="18"/>
+      <c r="DY2" s="18"/>
+      <c r="DZ2" s="18"/>
+      <c r="EA2" s="18"/>
+      <c r="EB2" s="18"/>
+      <c r="EC2" s="18"/>
+      <c r="ED2" s="18"/>
+      <c r="EE2" s="18"/>
+      <c r="EF2" s="18"/>
+      <c r="EG2" s="18"/>
+      <c r="EH2" s="18"/>
+      <c r="EI2" s="18"/>
+      <c r="EJ2" s="18"/>
+      <c r="EK2" s="18"/>
+      <c r="EL2" s="18"/>
+      <c r="EM2" s="18"/>
+      <c r="EN2" s="18"/>
+      <c r="EO2" s="18"/>
+      <c r="EP2" s="18"/>
+      <c r="EQ2" s="18"/>
+      <c r="ER2" s="18"/>
+      <c r="ES2" s="18"/>
+      <c r="ET2" s="18"/>
+      <c r="EU2" s="18"/>
+      <c r="EV2" s="18"/>
+      <c r="EW2" s="18"/>
+      <c r="EX2" s="18"/>
+      <c r="EY2" s="18"/>
+      <c r="EZ2" s="18"/>
+      <c r="FA2" s="18"/>
+      <c r="FB2" s="18"/>
+      <c r="FC2" s="18"/>
+      <c r="FD2" s="18"/>
+      <c r="FE2" s="18"/>
+      <c r="FF2" s="18"/>
+      <c r="FG2" s="18"/>
+      <c r="FH2" s="18"/>
+      <c r="FI2" s="18"/>
+      <c r="FJ2" s="18"/>
+      <c r="FK2" s="18"/>
+      <c r="FL2" s="18"/>
+      <c r="FM2" s="18"/>
+      <c r="FN2" s="18"/>
+      <c r="FO2" s="18"/>
+      <c r="FP2" s="18"/>
+      <c r="FQ2" s="18"/>
+      <c r="FR2" s="18"/>
+      <c r="FS2" s="18"/>
+      <c r="FT2" s="18"/>
+      <c r="FU2" s="18"/>
+      <c r="FV2" s="18"/>
+      <c r="FW2" s="18"/>
+      <c r="FX2" s="18"/>
+      <c r="FY2" s="18"/>
+      <c r="FZ2" s="18"/>
+      <c r="GA2" s="18"/>
+      <c r="GB2" s="18"/>
+      <c r="GC2" s="18"/>
+      <c r="GD2" s="18"/>
+      <c r="GE2" s="18"/>
+      <c r="GF2" s="18"/>
+      <c r="GG2" s="18"/>
+      <c r="GH2" s="18"/>
+      <c r="GI2" s="18"/>
+      <c r="GJ2" s="18"/>
+      <c r="GK2" s="18"/>
+      <c r="GL2" s="18"/>
+      <c r="GM2" s="18"/>
+      <c r="GN2" s="18"/>
+      <c r="GO2" s="18"/>
+      <c r="GP2" s="18"/>
+      <c r="GQ2" s="18"/>
+      <c r="GR2" s="18"/>
+      <c r="GS2" s="18"/>
+      <c r="GT2" s="18"/>
+      <c r="GU2" s="18"/>
+      <c r="GV2" s="18"/>
+      <c r="GW2" s="18"/>
+      <c r="GX2" s="18"/>
+      <c r="GY2" s="18"/>
+      <c r="GZ2" s="18"/>
+      <c r="HA2" s="18"/>
+      <c r="HB2" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:HB2"/>
+  <autoFilter ref="A2:HB2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="8">
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="DC1:DG1"/>

--- a/Base/src/main/resources/templates/projectDetailsBySkills.xlsx
+++ b/Base/src/main/resources/templates/projectDetailsBySkills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FS-Workspace\bops\Base\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8359580-EDD3-43C6-A4D3-3D3A9370D640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68AF44-9875-4C80-A684-8D1C07DF3925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="4950" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Client Name</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Client Partner</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal team </t>
-  </si>
-  <si>
     <t>Estimated Revenue</t>
   </si>
   <si>
@@ -230,7 +227,10 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Project Type</t>
+    <t xml:space="preserve">Project Type </t>
+  </si>
+  <si>
+    <t>Project Sub Type</t>
   </si>
 </sst>
 </file>
@@ -396,17 +396,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,13 +953,13 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CY7" sqref="CY7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.26171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.41796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.5234375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.68359375" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.15625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.41796875" style="5" bestFit="1" customWidth="1"/>
@@ -1085,122 +1085,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:210" x14ac:dyDescent="0.55000000000000004">
-      <c r="N1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BG1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BG1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="19"/>
-      <c r="BO1" s="19"/>
-      <c r="BP1" s="19"/>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BV1" s="19"/>
-      <c r="BW1" s="19"/>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="19"/>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="19"/>
-      <c r="CI1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="CJ1" s="20"/>
-      <c r="CK1" s="20"/>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="20"/>
-      <c r="CT1" s="20"/>
-      <c r="CU1" s="20"/>
-      <c r="CV1" s="20"/>
+      <c r="CJ1" s="22"/>
+      <c r="CK1" s="22"/>
+      <c r="CL1" s="22"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="22"/>
+      <c r="CO1" s="22"/>
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="22"/>
+      <c r="CR1" s="22"/>
+      <c r="CS1" s="22"/>
+      <c r="CT1" s="22"/>
+      <c r="CU1" s="22"/>
+      <c r="CV1" s="22"/>
       <c r="CX1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DC1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="DD1" s="19"/>
-      <c r="DE1" s="19"/>
-      <c r="DF1" s="19"/>
-      <c r="DG1" s="19"/>
+      <c r="DC1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
     </row>
     <row r="2" spans="1:210" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1240,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>32</v>
@@ -1498,7 +1498,7 @@
         <v>56</v>
       </c>
       <c r="CW2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CX2" s="15" t="s">
         <v>30</v>
